--- a/01_studies/01_Laborstudie ProVisioNET/Akquise/Kontaktverfolgung_ProVisioNET_MK.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Akquise/Kontaktverfolgung_ProVisioNET_MK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Akquise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{F4DDBB38-AC93-413B-AC4D-61F40E2716D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3AAAC027-A351-4D08-8074-565C895B337C}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{F4DDBB38-AC93-413B-AC4D-61F40E2716D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B192AAB9-4A07-4B26-A4A3-4DF898539F9D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
   <si>
     <t>Datum</t>
   </si>
@@ -114,9 +114,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Termin für Erhebung kommunizieren</t>
-  </si>
-  <si>
     <t xml:space="preserve">14 Uhr </t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>27.07.2021 | 15.30 Uhr</t>
   </si>
   <si>
-    <t>wird noch bekanntgegeben</t>
-  </si>
-  <si>
     <t>Deutsch | Geschichte | Kant Gymnasium Leipzig</t>
   </si>
   <si>
@@ -315,9 +309,6 @@
     <t>214</t>
   </si>
   <si>
-    <t>Ariane Hinneburg</t>
-  </si>
-  <si>
     <t>angelakalbitz@gmail.com</t>
   </si>
   <si>
@@ -327,13 +318,34 @@
     <t>Englisch | Französisch | Werner-Heisenberg-Gymnasium</t>
   </si>
   <si>
-    <t>Mathe | Ethik | Lehrkraft für besondere Aufgaben Uni Leipzig</t>
-  </si>
-  <si>
-    <t>ariane.hinneburg@uni-leipzig.de</t>
-  </si>
-  <si>
-    <t>215</t>
+    <t>05.08.2021 | 15.30 Uhr</t>
+  </si>
+  <si>
+    <t>Nach Materialien fragen</t>
+  </si>
+  <si>
+    <t>wird noch festgelegt</t>
+  </si>
+  <si>
+    <t>01575 1300404</t>
+  </si>
+  <si>
+    <t>19:30 Uhr</t>
+  </si>
+  <si>
+    <t>Telefonat</t>
+  </si>
+  <si>
+    <t>31.08.2021 | 12.00 Uhr</t>
+  </si>
+  <si>
+    <t>E-Mail-Kontakt 15.07.21 | auf Rückmeldung für Telefonat warten | Studie angedacht in der Woche vom 30.08.-05.09.</t>
+  </si>
+  <si>
+    <t>Erinnerungsmail am 22.08. schreiben | Videokonfi in der Woche 23.-29.08. --&gt; Ablauf + Termin</t>
+  </si>
+  <si>
+    <t>hatte bereits Anfang des Jahres auf 1. Mail geantwortet + an Doodle teilgenommen | Warten auf Rückmeldung</t>
   </si>
 </sst>
 </file>
@@ -415,7 +427,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -464,6 +476,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -475,10 +490,10 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -596,8 +611,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Ausgehend" displayName="Ausgehend" ref="A2:L20" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A2:L20" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Ausgehend" displayName="Ausgehend" ref="A2:L19" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A2:L19" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
     <tableColumn id="10" xr3:uid="{B743D81B-9F0F-4770-BB34-848703F04748}" name="VP-ID" dataDxfId="11"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Datum" dataDxfId="10"/>
@@ -609,8 +624,8 @@
     <tableColumn id="13" xr3:uid="{B703622D-C4A7-44B1-9E3B-A9C1224DDF10}" name="Kontaktverlauf" dataDxfId="4" dataCellStyle="Telefon"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Betreff" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Notizen" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Aktionspunkte" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{AA86FB0A-E21A-44F7-B0ED-197FA869BA27}" name="Erhebungstermin" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Aktionspunkte" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{AA86FB0A-E21A-44F7-B0ED-197FA869BA27}" name="Erhebungstermin" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -946,15 +961,15 @@
     <tabColor theme="6" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" customWidth="1"/>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.21875" customWidth="1"/>
@@ -964,12 +979,12 @@
     <col min="8" max="8" width="18.77734375" customWidth="1"/>
     <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="10"/>
@@ -995,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1</v>
@@ -1007,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>3</v>
@@ -1019,7 +1034,7 @@
         <v>5</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1033,7 +1048,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -1045,19 +1060,19 @@
         <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1068,10 +1083,10 @@
         <v>44390</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
@@ -1089,13 +1104,13 @@
         <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1106,10 +1121,10 @@
         <v>44390</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>20</v>
@@ -1130,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1144,412 +1159,410 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="5">
+        <v>44399</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="K15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>82</v>
+      <c r="L15" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="6"/>
       <c r="E16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="6"/>
       <c r="E17" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="6"/>
       <c r="E18" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="6"/>
       <c r="E19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>101</v>
+      <c r="G19" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>102</v>
-      </c>
+      <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
+    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1576,9 +1589,8 @@
     <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <dataValidations disablePrompts="1" count="9">
+  <dataValidations count="9">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift das Datum ein. Verwenden Sie Überschriftsfilter, um bestimmte Einträge zu finden." sqref="A2:B2" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Anfangszeit ein." sqref="C2:D2" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift den Namen ein." sqref="E2" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
@@ -1603,13 +1615,12 @@
     <hyperlink ref="G14" r:id="rId11" xr:uid="{04964FEC-F44F-4967-A228-B01A9766ED35}"/>
     <hyperlink ref="G15" r:id="rId12" xr:uid="{D0D73554-3C9C-4A03-9538-7207DA29773A}"/>
     <hyperlink ref="G17" r:id="rId13" xr:uid="{9B13E169-A7B9-41A6-BE1B-B885A8EEABE8}"/>
-    <hyperlink ref="G19" r:id="rId14" xr:uid="{1D6F14E4-3F31-49B5-B466-22824E78BE9C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="71" fitToHeight="0" orientation="landscape" r:id="rId15"/>
+  <pageSetup scale="71" fitToHeight="0" orientation="landscape" r:id="rId14"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/01_studies/01_Laborstudie ProVisioNET/Akquise/Kontaktverfolgung_ProVisioNET_MK.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Akquise/Kontaktverfolgung_ProVisioNET_MK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Akquise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{F4DDBB38-AC93-413B-AC4D-61F40E2716D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B192AAB9-4A07-4B26-A4A3-4DF898539F9D}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{F4DDBB38-AC93-413B-AC4D-61F40E2716D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1771A53C-1701-4B45-8A18-BC5CF0E60B42}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="131">
   <si>
     <t>Datum</t>
   </si>
@@ -346,6 +346,78 @@
   </si>
   <si>
     <t>hatte bereits Anfang des Jahres auf 1. Mail geantwortet + an Doodle teilgenommen | Warten auf Rückmeldung</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Anna Pelikan</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Jonas Gacek</t>
+  </si>
+  <si>
+    <t>Kontaktperson</t>
+  </si>
+  <si>
+    <t>Christins Stexi</t>
+  </si>
+  <si>
+    <t>Mirjam Seminar</t>
+  </si>
+  <si>
+    <t>StuMi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oliver Fengler </t>
+  </si>
+  <si>
+    <t>Elenas Kommilitone</t>
+  </si>
+  <si>
+    <t>Sebastian Mail</t>
+  </si>
+  <si>
+    <t>Carola</t>
+  </si>
+  <si>
+    <t>of36syde@studserv.uni-leipzig.de</t>
+  </si>
+  <si>
+    <t>gacekjonas@gmail.com</t>
+  </si>
+  <si>
+    <t>10 Uhr</t>
+  </si>
+  <si>
+    <t>11.30 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">live </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.09.2021 | 10 Uhr </t>
+  </si>
+  <si>
+    <t>01.09.2021 | 15 Uhr</t>
+  </si>
+  <si>
+    <t>Religion (7. FS) | Sport (7. FS) | Lehramt Oberschule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Englisch | Sport | Lehramt Gymnasien </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenschutz + Begleitschreiben zuschicken </t>
   </si>
 </sst>
 </file>
@@ -405,7 +477,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -413,6 +485,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -427,7 +508,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -479,6 +560,28 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -490,10 +593,10 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -611,9 +714,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Ausgehend" displayName="Ausgehend" ref="A2:L19" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A2:L19" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Ausgehend" displayName="Ausgehend" ref="A2:M23" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A2:M23" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="13">
     <tableColumn id="10" xr3:uid="{B743D81B-9F0F-4770-BB34-848703F04748}" name="VP-ID" dataDxfId="11"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Datum" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Uhrzeit" dataDxfId="9"/>
@@ -621,11 +724,12 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Name" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Telefonnummer" dataDxfId="6"/>
     <tableColumn id="11" xr3:uid="{3FB1913E-BD49-4AAE-8290-D149C7E878A5}" name="E-Mail-Adresse" dataDxfId="5" dataCellStyle="Telefon"/>
+    <tableColumn id="9" xr3:uid="{14F7A440-4377-4BF4-84BB-F53ACEA5FAD7}" name="Kontaktperson" dataCellStyle="Standard"/>
     <tableColumn id="13" xr3:uid="{B703622D-C4A7-44B1-9E3B-A9C1224DDF10}" name="Kontaktverlauf" dataDxfId="4" dataCellStyle="Telefon"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Betreff" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Notizen" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Aktionspunkte" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{AA86FB0A-E21A-44F7-B0ED-197FA869BA27}" name="Erhebungstermin" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Aktionspunkte" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{AA86FB0A-E21A-44F7-B0ED-197FA869BA27}" name="Erhebungstermin" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -961,10 +1065,10 @@
     <tabColor theme="6" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,17 +1077,18 @@
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="51.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
@@ -998,8 +1103,9 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1022,22 +1128,25 @@
         <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1059,23 +1168,26 @@
       <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
@@ -1097,23 +1209,26 @@
       <c r="G4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -1127,7 +1242,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
@@ -1135,445 +1250,620 @@
       <c r="G5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44390</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>33</v>
+      <c r="H6" t="s">
+        <v>116</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>44</v>
+        <v>121</v>
+      </c>
+      <c r="H7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="19">
+        <v>44432</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="5">
-        <v>44399</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>102</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="6"/>
+      <c r="K17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="5">
+        <v>44399</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M18" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="6"/>
       <c r="E19" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="G19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1589,38 +1879,44 @@
     <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations disablePrompts="1" count="9">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift das Datum ein. Verwenden Sie Überschriftsfilter, um bestimmte Einträge zu finden." sqref="A2:B2" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Anfangszeit ein." sqref="C2:D2" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift den Namen ein." sqref="E2" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Telefonnummer ein." sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift den Betreff ein." sqref="I2" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift Anmerkungen ein." sqref="J2" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift Aktionspunkte ein." sqref="K2:L2" xr:uid="{00000000-0002-0000-0100-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift &quot;Ja&quot; oder &quot;Nein&quot; ein, wenn dieser Anruf nachverfolgt werden soll." sqref="H2" xr:uid="{00000000-0002-0000-0100-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Erstellen Sie einen Telefongesprächstracker für ausgehende Anrufe auf diesem Arbeitsblatt. Der Titel dieses Arbeitsblatts befindet sich in dieser Zelle. Geben Sie Details zu den ausgehenden Anrufen in der Tabelle unten ein." sqref="A1:L1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Telefonnummer ein." sqref="F2:H2" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift den Betreff ein." sqref="J2" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift Anmerkungen ein." sqref="K2" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift Aktionspunkte ein." sqref="L2:M2" xr:uid="{00000000-0002-0000-0100-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift &quot;Ja&quot; oder &quot;Nein&quot; ein, wenn dieser Anruf nachverfolgt werden soll." sqref="I2" xr:uid="{00000000-0002-0000-0100-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Erstellen Sie einen Telefongesprächstracker für ausgehende Anrufe auf diesem Arbeitsblatt. Der Titel dieses Arbeitsblatts befindet sich in dieser Zelle. Geben Sie Details zu den ausgehenden Anrufen in der Tabelle unten ein." sqref="A1:M1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{95B150B8-0C93-401B-90F5-EA472F187BF3}"/>
     <hyperlink ref="G4" r:id="rId2" xr:uid="{668081C4-18B2-419A-9C10-DD94434D0FAD}"/>
-    <hyperlink ref="G6" r:id="rId3" xr:uid="{9688FF7D-0364-4180-8AFA-4187302E6D0B}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{09C8ABC1-ACA0-4843-BAE6-A0E3F0F67EF1}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{09920B59-F40B-431E-AFE7-C52B4CDB4F70}"/>
-    <hyperlink ref="G9" r:id="rId6" xr:uid="{7A42F365-1F61-44E5-8C5A-4686EAEB0B07}"/>
-    <hyperlink ref="G10" r:id="rId7" xr:uid="{9FB4CB27-565E-464C-B01C-C06BD0D43F97}"/>
-    <hyperlink ref="G11" r:id="rId8" xr:uid="{69F217B9-0201-4D0F-A759-4023A20E43CA}"/>
-    <hyperlink ref="G12" r:id="rId9" xr:uid="{EB51525E-2DE7-4246-9570-F57DBB6C156F}"/>
-    <hyperlink ref="G13" r:id="rId10" xr:uid="{3E71E4E9-3D85-437A-BA1B-C5EA77E8C3FB}"/>
-    <hyperlink ref="G14" r:id="rId11" xr:uid="{04964FEC-F44F-4967-A228-B01A9766ED35}"/>
-    <hyperlink ref="G15" r:id="rId12" xr:uid="{D0D73554-3C9C-4A03-9538-7207DA29773A}"/>
-    <hyperlink ref="G17" r:id="rId13" xr:uid="{9B13E169-A7B9-41A6-BE1B-B885A8EEABE8}"/>
+    <hyperlink ref="G10" r:id="rId3" xr:uid="{09C8ABC1-ACA0-4843-BAE6-A0E3F0F67EF1}"/>
+    <hyperlink ref="G11" r:id="rId4" xr:uid="{09920B59-F40B-431E-AFE7-C52B4CDB4F70}"/>
+    <hyperlink ref="G12" r:id="rId5" xr:uid="{7A42F365-1F61-44E5-8C5A-4686EAEB0B07}"/>
+    <hyperlink ref="G13" r:id="rId6" xr:uid="{9FB4CB27-565E-464C-B01C-C06BD0D43F97}"/>
+    <hyperlink ref="G14" r:id="rId7" xr:uid="{69F217B9-0201-4D0F-A759-4023A20E43CA}"/>
+    <hyperlink ref="G15" r:id="rId8" xr:uid="{EB51525E-2DE7-4246-9570-F57DBB6C156F}"/>
+    <hyperlink ref="G16" r:id="rId9" xr:uid="{3E71E4E9-3D85-437A-BA1B-C5EA77E8C3FB}"/>
+    <hyperlink ref="G17" r:id="rId10" xr:uid="{04964FEC-F44F-4967-A228-B01A9766ED35}"/>
+    <hyperlink ref="G18" r:id="rId11" xr:uid="{D0D73554-3C9C-4A03-9538-7207DA29773A}"/>
+    <hyperlink ref="G20" r:id="rId12" xr:uid="{9B13E169-A7B9-41A6-BE1B-B885A8EEABE8}"/>
+    <hyperlink ref="G9" r:id="rId13" xr:uid="{9688FF7D-0364-4180-8AFA-4187302E6D0B}"/>
+    <hyperlink ref="G7" r:id="rId14" xr:uid="{75156086-6A29-41CD-BF06-55B2427F67C6}"/>
+    <hyperlink ref="G8" r:id="rId15" xr:uid="{1ED7952C-5F28-4D05-A3C2-7C184A4C051A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="71" fitToHeight="0" orientation="landscape" r:id="rId14"/>
+  <pageSetup scale="71" fitToHeight="0" orientation="landscape" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>